--- a/biology/Médecine/Muscle_sphincter_externe_de_l'urètre/Muscle_sphincter_externe_de_l'urètre.xlsx
+++ b/biology/Médecine/Muscle_sphincter_externe_de_l'urètre/Muscle_sphincter_externe_de_l'urètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_externe_de_l'urètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle sphincter externe de l'urètre ou sphincter strié de l’urètre est un sphincter qui contrôle la continence urinaire.
 C'est un muscle strié volontaire qui agit en complément du muscle lisse involontaire : le muscle sphincter interne de l'urètre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_externe_de_l'urètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Le muscle sphincter externe de l'urètre féminin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle du sphincter externe de l'urètre nait chez la femme par des fibres musculaires de chaque côté du bord de la branche inférieure du pubis. Elles se dirigent à travers l'arc pubien devant l'urètre, et passent autour de celui-ci pour se fondre avec les fibres musculaires du côté opposé, entre l'urètre et le vagin.
 Les fibres adjacentes au vagin sont parfois considérées comme un muscle distinct : le muscle sphincter urétro-vaginal (musculus sphincter urethrovaginalis).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_externe_de_l'urètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Le muscle sphincter externe de l'urètre masculin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'homme le muscle sphincter externe de l'urètre entoure toute la longueur de l'urètre membraneux et est enfermé dans le fascia du diaphragme urogénital.
 Ses fibres externes naissent à la jonction de la branche pubienne inférieure et de l'ischion, ainsi que du fascia voisin.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_externe_de_l'urètre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par des fibres somatiques provenant du noyau d'Onuf via les nerfs rachidiens sacrés S2-S4, puis par le nerf pudendal.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_externe_de_l'urètre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Conjointement avec le muscle sphincter interne de l'urètre, il contribue à la rétention urinaire pour sa composante volontaire.
 La miction urinaire commence par un relâchement volontaire du muscle sphincter externe facilité par l'inhibition des neurones du noyau d'Onuf via des signaux en provenance du centre mictionnel pontique via les voies réticulo-spinales descendantes.
